--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>792000</v>
+      </c>
+      <c r="F8" s="3">
         <v>730600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>405600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>607900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>355700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>563300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>453200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>865300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>578800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>542900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>329400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>468400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>313400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>396100</v>
+      </c>
+      <c r="F9" s="3">
         <v>363000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>311000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>294300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>282600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>256300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>233100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>212200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>200500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>222400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>238500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>154800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>156900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>395900</v>
+      </c>
+      <c r="F10" s="3">
         <v>367600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>94600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>313600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>73100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>307000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>220100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>653100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>378300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>320500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>462200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>174600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>311500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-46300</v>
+      </c>
+      <c r="F14" s="3">
         <v>5600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>8900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>7500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>6800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>12600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>6700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>1500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>664400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>538900</v>
+      </c>
+      <c r="F17" s="3">
         <v>491300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>452200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>406000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>414400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>364300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>270000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>257900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>231900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>270500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>280400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>186700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>205700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>253100</v>
+      </c>
+      <c r="F18" s="3">
         <v>239300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-46600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>201900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-58700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>199000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>183200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>607400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>346900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>272400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>420300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>142700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>262700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,13 +1243,15 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1211,19 +1278,25 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1774100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>253200</v>
+      </c>
+      <c r="F23" s="3">
         <v>239200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-46600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>201900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-58600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>199000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>183200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>607500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>346900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>272300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>420200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>142800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>262800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-166900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-21600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-67500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>56700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>32600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>82800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1607300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>230400</v>
+      </c>
+      <c r="F26" s="3">
         <v>244700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-25000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>155900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>8900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>195500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>185800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>614400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>290300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>239700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>337400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>137200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>242100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1602300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>211800</v>
+      </c>
+      <c r="F27" s="3">
         <v>224600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-31900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>145600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>184600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>174800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>604300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>278200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>226100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>321700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>121400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>225200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1600,15 +1721,15 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>10100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,13 +1839,19 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1739,63 +1878,75 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1602300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>211800</v>
+      </c>
+      <c r="F33" s="3">
         <v>224600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-31900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>145600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>184600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>174800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>604300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>288300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>226100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>321700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>121400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>225200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1602300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>211800</v>
+      </c>
+      <c r="F35" s="3">
         <v>224600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-31900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>145600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>184600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>174800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>604300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>288300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>226100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>321700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>121400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>225200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>360500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>528700</v>
+      </c>
+      <c r="F41" s="3">
         <v>738200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>406000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>340900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>251100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>330100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>193200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>233200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>295800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>279800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>560000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>236600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>290600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5099300</v>
+        <v>4129900</v>
       </c>
       <c r="E43" s="3">
-        <v>5620700</v>
+        <v>5653200</v>
       </c>
       <c r="F43" s="3">
-        <v>7396000</v>
+        <v>5001200</v>
       </c>
       <c r="G43" s="3">
-        <v>4170800</v>
+        <v>5497200</v>
       </c>
       <c r="H43" s="3">
-        <v>3677500</v>
+        <v>7312600</v>
       </c>
       <c r="I43" s="3">
+        <v>4094800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3611200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1315600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1231900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1105300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1916500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2812700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1986900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1812400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,31 +2334,37 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>20900</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2187,8 +2384,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,75 +2434,87 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34190900</v>
+        <v>18650600</v>
       </c>
       <c r="E47" s="3">
-        <v>29763300</v>
+        <v>37605900</v>
       </c>
       <c r="F47" s="3">
-        <v>24867600</v>
+        <v>34289000</v>
       </c>
       <c r="G47" s="3">
-        <v>26483100</v>
+        <v>29886800</v>
       </c>
       <c r="H47" s="3">
-        <v>25435600</v>
+        <v>24951000</v>
       </c>
       <c r="I47" s="3">
+        <v>26559100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>25501900</v>
+      </c>
+      <c r="K47" s="3">
         <v>20917900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>20072900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>20296200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>18724200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>18987400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>17146900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>15721100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>55800</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>32100</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2319,31 +2534,37 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>66000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>323700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>170900</v>
+      </c>
+      <c r="F52" s="3">
         <v>206500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>198500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>185800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>229900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>155700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>161400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>179700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>150300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>184500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>223000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>306200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>314400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>24193500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44863500</v>
+      </c>
+      <c r="F54" s="3">
         <v>41347900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>36792400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>33409600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>31691000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30090800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>22943700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>22011900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>22213600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>21404800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>23000000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>20030000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>18399500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,140 +2878,160 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>176700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1125700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2625600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>364000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>304500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2225400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1975200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1262500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1185100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1331900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1241300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1942300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1510000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1460600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>10814100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>27916200</v>
+      </c>
+      <c r="F58" s="3">
         <v>23110400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21480200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>18441800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>15554000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>14387000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8757100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7635500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8662100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7848000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>8261400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6277600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>5190600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>439600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>662900</v>
+      </c>
+      <c r="F59" s="3">
         <v>885600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>644300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>544600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>515900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>485300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>380000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>368400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>308400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>386000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>377600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>359300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>278400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,52 +3074,64 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7014600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7720100</v>
+      </c>
+      <c r="F61" s="3">
         <v>7405900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>7297800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>6952100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>7102300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>7254900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>6707800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7031000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7084400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>7237000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>7787800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7557600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7990600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2853,27 +3144,27 @@
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>3900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18929600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>37705700</v>
+      </c>
+      <c r="F66" s="3">
         <v>34169500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>30074400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>26587300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>25693300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>24347400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>17234900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>16348000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>17523400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16833200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>18575200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>15927900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>15139400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,19 +3494,25 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>813000</v>
+      </c>
+      <c r="E70" s="3">
         <v>423400</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1059700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>549700</v>
+      </c>
+      <c r="F72" s="3">
         <v>545700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>528900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>768600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>830700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1014900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1000500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>995700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>559500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>424900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>352400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>184400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>210500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4450900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6734300</v>
+      </c>
+      <c r="F76" s="3">
         <v>6755000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>6718000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6822300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5997700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5743300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>5708800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5663900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4690200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4571600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4424800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4102100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3260100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1602300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>211800</v>
+      </c>
+      <c r="F81" s="3">
         <v>224600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-31900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>145600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>184600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>174800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>604300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>288300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>226100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>321700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>121400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>225200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1311400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>693800</v>
+      </c>
+      <c r="F89" s="3">
         <v>466800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-272500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-316900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>513700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-281900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-274300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>35400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-378800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>36800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16660800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5697600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-724100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-146600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-271900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>216200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-208000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1206200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-333500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>-207800</v>
       </c>
       <c r="E96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="G96" s="3">
         <v>-207700</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-184600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-170200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-169900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="K96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-153700</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-153700</v>
       </c>
       <c r="L96" s="3">
         <v>-153700</v>
       </c>
       <c r="M96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="O96" s="3">
         <v>-147500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-115400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-115400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18155300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4793300</v>
+      </c>
+      <c r="F100" s="3">
         <v>1643200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>3263100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3147300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1229200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>5372500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>530500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-763000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>504100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>2049000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1334000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>192400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-210400</v>
+      </c>
+      <c r="F102" s="3">
         <v>336200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>56200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-70800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>131200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-58200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-285600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>322400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-58800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-88100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>476400</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
         <v>792000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>730600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>405600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>607900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>355700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>563300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>453200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>865300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>578800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>542900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>329400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>468400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>219200</v>
+      </c>
+      <c r="E9" s="3">
         <v>313400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>396100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>363000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>311000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>294300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>282600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>256300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>233100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>212200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>222400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>238500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>154800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>156900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>257200</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="3">
         <v>395900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>367600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>94600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>313600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>307000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>220100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>653100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>378300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>320500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>462200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>174600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>311500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E14" s="3">
         <v>144600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-46300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>414800</v>
+      </c>
+      <c r="E17" s="3">
         <v>664400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>538900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>491300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>452200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>406000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>414400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>364300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>270000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>231900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>270500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>280400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>186700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>205700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="3">
         <v>253100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>239300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-46600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>201900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>199000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>183200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>607400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>346900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>272400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>420300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>142700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>262700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,16 +1278,17 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1284,19 +1318,22 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>61500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>253200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>239200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-46600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>201900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-58600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>199000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>183200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>607500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>346900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>272300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>420200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>262800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-166900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-21600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-67500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>82800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>230400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>244700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-25000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>155900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>195500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>185800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>614400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>290300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>239700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>337400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>137200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>242100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>211800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>224600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-31900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>145600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>184600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>174800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>604300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>278200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>226100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>321700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>121400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>225200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1727,12 +1788,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>10100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,16 +1912,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1884,69 +1954,75 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>211800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>224600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-31900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>145600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>184600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>174800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>604300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>288300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>226100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>321700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>121400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>225200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>211800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>224600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-31900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>145600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>184600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>174800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>604300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>288300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>226100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>321700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>121400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>225200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1013200</v>
+      </c>
+      <c r="E41" s="3">
         <v>360500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>528700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>738200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>406000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>340900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>251100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>330100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>193200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>233200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>295800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>279800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>560000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>236600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>290600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>324200</v>
+      </c>
+      <c r="E43" s="3">
         <v>4129900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5653200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5001200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5497200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>7312600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4094800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3611200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1315600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1231900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1105300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1916500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2812700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1986900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1812400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,17 +2436,20 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E45" s="3">
         <v>20900</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2366,8 +2465,8 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,70 +2542,76 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21402200</v>
+      </c>
+      <c r="E47" s="3">
         <v>18650600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37605900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>34289000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>29886800</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>24951000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>26559100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>25501900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20917900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20072900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20296200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18724200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18987400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>17146900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>15721100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E48" s="3">
         <v>55800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>32100</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2516,8 +2624,8 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -2540,17 +2648,20 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>65500</v>
+      </c>
+      <c r="E49" s="3">
         <v>66000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2566,8 +2677,8 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E52" s="3">
         <v>323700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>170900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>206500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>198500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>185800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>229900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>155700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>161400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>179700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>150300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>184500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>223000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>306200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>314400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23752100</v>
+      </c>
+      <c r="E54" s="3">
         <v>24193500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>44863500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>41347900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>36792400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33409600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>31691000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>30090800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22943700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22011900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22213600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>21404800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23000000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>20030000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>18399500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,158 +3010,168 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E57" s="3">
         <v>176700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1125700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2625600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>364000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>304500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2225400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1975200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1262500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1185100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1331900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1241300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1942300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1510000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1460600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9171500</v>
+      </c>
+      <c r="E58" s="3">
         <v>10814100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>27916200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23110400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>21480200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18441800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15554000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14387000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8757100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7635500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8662100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7848000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8261400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6277600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5190600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>435100</v>
+      </c>
+      <c r="E59" s="3">
         <v>439600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>662900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>885600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>644300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>544600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>515900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>485300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>380000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>368400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>308400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>386000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>377600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>359300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>278400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,58 +3220,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7412800</v>
+      </c>
+      <c r="E61" s="3">
         <v>7014600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7720100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7405900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7297800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6952100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7102300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7254900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6707800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7031000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7084400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7237000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7787800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7557600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7990600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3150,24 +3296,24 @@
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>3900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18459900</v>
+      </c>
+      <c r="E66" s="3">
         <v>18929600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37705700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>34169500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>30074400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>26587300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25693300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24347400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17234900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16348000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17523400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16833200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18575200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15927900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15139400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3509,13 +3677,13 @@
         <v>813000</v>
       </c>
       <c r="E70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="F70" s="3">
         <v>423400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1110100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>549700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>545700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>528900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>768600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>830700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1014900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1000500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>995700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>559500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>424900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>352400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>184400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>210500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4479300</v>
+      </c>
+      <c r="E76" s="3">
         <v>4450900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6734300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6755000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6718000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6822300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>5997700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5743300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5708800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5663900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4690200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4571600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4424800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4102100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3260100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>211800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>224600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-31900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>145600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>184600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>174800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>604300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>288300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>226100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>321700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>121400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>225200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1454900</v>
+      </c>
+      <c r="E89" s="3">
         <v>1311400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>693800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>466800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-272500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-316900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>513700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-281900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-274300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>35400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-378800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-297600</v>
+      </c>
+      <c r="E94" s="3">
         <v>16660800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-724100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-146600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-271900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>216200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-208000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1206200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-333500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-207800</v>
+        <v>-20800</v>
       </c>
       <c r="E96" s="3">
         <v>-207800</v>
@@ -4630,22 +4864,22 @@
         <v>-207800</v>
       </c>
       <c r="G96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="H96" s="3">
         <v>-207700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-184600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-170200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-169900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-153700</v>
       </c>
       <c r="M96" s="3">
         <v>-153700</v>
@@ -4654,19 +4888,22 @@
         <v>-153700</v>
       </c>
       <c r="O96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-115400</v>
       </c>
       <c r="Q96" s="3">
         <v>-115400</v>
       </c>
       <c r="R96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="S96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-513000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4793300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1643200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3263100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3147300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1229200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>5372500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>530500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-763000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>504100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2049000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1334000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>192400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>644300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-183000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-210400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>336200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>56200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>94000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-70800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>131200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-58200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-33100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-285600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>322400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,256 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>476400</v>
+        <v>685000</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3">
         <v>792000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>730600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>405600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>607900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>355700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>563300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>453200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>865300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>578800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>542900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>329400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>468400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>219200</v>
+        <v>153000</v>
       </c>
       <c r="E9" s="3">
+        <v>457700</v>
+      </c>
+      <c r="F9" s="3">
         <v>313400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>396100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>363000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>311000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>294300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>282600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>256300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>233100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>212200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>200500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>222400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>238500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>154800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>156900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>257200</v>
+        <v>532000</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
         <v>395900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>367600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>94600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>313600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>307000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>220100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>653100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>378300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>320500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>462200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>174600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>311500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1044,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-21700</v>
+        <v>10700</v>
       </c>
       <c r="E14" s="3">
+        <v>122900</v>
+      </c>
+      <c r="F14" s="3">
         <v>144600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-46300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>8900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1177,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>414800</v>
+        <v>480300</v>
       </c>
       <c r="E17" s="3">
+        <v>1043400</v>
+      </c>
+      <c r="F17" s="3">
         <v>664400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>538900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>491300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>452200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>406000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>414400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>364300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>270000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>231900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>270500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>280400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>186700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>205700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>61600</v>
+        <v>204700</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
         <v>253100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>239300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-46600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>201900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>199000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>183200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>607400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>346900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>272400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>420300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>142700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>262700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1311,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1290,8 +1323,8 @@
       <c r="E20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1321,19 +1354,22 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1477,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>61500</v>
+        <v>204700</v>
       </c>
       <c r="E23" s="3">
+        <v>-1712600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>253200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>239200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-46600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>201900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-58600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>183200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>607500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>346900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>272300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>420200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>262800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17400</v>
+        <v>100800</v>
       </c>
       <c r="E24" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-166900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-21600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-67500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>82800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1645,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>44100</v>
+        <v>103900</v>
       </c>
       <c r="E26" s="3">
+        <v>-1563100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>230400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>244700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-25000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>155900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>195500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>185800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>614400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>290300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>239700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>337400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>137200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>242100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8900</v>
+        <v>77900</v>
       </c>
       <c r="E27" s="3">
+        <v>-1611200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>211800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>224600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-31900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>145600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>184600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>174800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>604300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>278200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>226100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>321700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>121400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>225200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1791,12 +1851,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>10100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1809,8 +1869,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1981,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1926,8 +1995,8 @@
       <c r="E32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1957,72 +2026,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8900</v>
+        <v>77900</v>
       </c>
       <c r="E33" s="3">
+        <v>-1611200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>211800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>224600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-31900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>145600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>184600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>174800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>604300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>288300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>226100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>321700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>121400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>225200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2149,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8900</v>
+        <v>77900</v>
       </c>
       <c r="E35" s="3">
+        <v>-1611200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>211800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>224600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-31900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>145600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>184600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>174800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>604300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>288300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>226100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>321700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>121400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>225200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2312,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>841000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1013200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>360500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>528700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>738200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>406000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>340900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>251100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>330100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>193200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>233200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>295800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>279800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>560000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>236600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>290600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2422,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1120700</v>
+      </c>
+      <c r="E43" s="3">
         <v>324200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4129900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>5653200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5001200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5497200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>7312600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4094800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3611200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1315600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1231900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1105300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1916500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2812700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1986900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1812400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,20 +2534,23 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E45" s="3">
         <v>24200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2468,8 +2566,8 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2492,8 +2590,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,76 +2646,82 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>27451200</v>
+      </c>
+      <c r="E47" s="3">
         <v>21402200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>18650600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>37605900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>34289000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>29886800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>24951000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>26559100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>25501900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>20917900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20072900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20296200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18724200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18987400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>17146900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>15721100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>54500</v>
+      </c>
+      <c r="E48" s="3">
         <v>53200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>55800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32100</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2627,8 +2734,8 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -2651,20 +2758,23 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64500</v>
+      </c>
+      <c r="E49" s="3">
         <v>65500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>66000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2680,8 +2790,8 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2704,8 +2814,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2926,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E52" s="3">
         <v>287700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>323700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>170900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>206500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>198500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>185800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>229900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>155700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>161400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>179700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>150300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>184500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>223000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>306200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>314400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30406400</v>
+      </c>
+      <c r="E54" s="3">
         <v>23752100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24193500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>44863500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>41347900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>36792400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>33409600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31691000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>30090800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22943700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22011900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22213600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21404800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23000000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>20030000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>18399500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,167 +3140,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>129900</v>
+      </c>
+      <c r="E57" s="3">
         <v>232300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>176700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1125700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2625600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>364000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>304500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2225400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1975200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1262500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1185100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1331900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1241300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1942300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1510000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1460600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14666900</v>
+      </c>
+      <c r="E58" s="3">
         <v>9171500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>10814100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>27916200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>23110400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>21480200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>18441800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15554000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14387000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>8757100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7635500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8662100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7848000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8261400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6277600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5190600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>390900</v>
+      </c>
+      <c r="E59" s="3">
         <v>435100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>439600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>662900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>885600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>644300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>544600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>515900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>485300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>380000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>368400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>308400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>386000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>377600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>359300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>278400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,100 +3362,106 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8275400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7412800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7014600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7720100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7405900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7297800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6952100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7102300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7254900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6707800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7031000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7084400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7237000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7787800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7557600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7990600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>3900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>10200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19200</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,8 +3474,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>25077200</v>
+      </c>
+      <c r="E66" s="3">
         <v>18459900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18929600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37705700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>34169500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>30074400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>26587300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>25693300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24347400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17234900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16348000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17523400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16833200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>18575200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15927900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15139400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3680,13 +3847,13 @@
         <v>813000</v>
       </c>
       <c r="F70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="G70" s="3">
         <v>423400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -3721,8 +3888,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1094600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>549700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>545700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>528900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>768600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>830700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1014900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1000500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>995700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>559500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>424900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>352400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>184400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>210500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4516200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4479300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4450900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6734300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6755000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6718000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6822300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5997700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5743300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5708800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5663900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4690200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4571600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4424800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4102100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3260100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4280,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8900</v>
+        <v>77900</v>
       </c>
       <c r="E81" s="3">
+        <v>-1611200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>211800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>224600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-31900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>145600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>184600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>174800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>604300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>288300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>226100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>321700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>121400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>225200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4755,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1454900</v>
+        <v>-880400</v>
       </c>
       <c r="E89" s="3">
+        <v>2766300</v>
+      </c>
+      <c r="F89" s="3">
         <v>1311400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>693800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>466800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-272500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-316900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>513700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-281900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-274300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>35400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-378800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5001,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297600</v>
+        <v>-5395500</v>
       </c>
       <c r="E94" s="3">
+        <v>16363200</v>
+      </c>
+      <c r="F94" s="3">
         <v>16660800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-724100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-146600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-271900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>216200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-208000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1206200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-333500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,16 +5081,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20800</v>
+        <v>-41600</v>
       </c>
       <c r="E96" s="3">
-        <v>-207800</v>
+        <v>-228500</v>
       </c>
       <c r="F96" s="3">
         <v>-207800</v>
@@ -4867,22 +5100,22 @@
         <v>-207800</v>
       </c>
       <c r="H96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="I96" s="3">
         <v>-207700</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-184600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-170200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-169900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-153700</v>
       </c>
       <c r="N96" s="3">
         <v>-153700</v>
@@ -4891,19 +5124,22 @@
         <v>-153700</v>
       </c>
       <c r="P96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-115400</v>
       </c>
       <c r="R96" s="3">
         <v>-115400</v>
       </c>
       <c r="S96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5303,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-513000</v>
+        <v>6145400</v>
       </c>
       <c r="E100" s="3">
+        <v>-18668300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4793300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1643200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3263100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3147300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1229200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5372500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>530500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-763000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>504100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2049000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1334000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>192400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5415,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>644300</v>
+        <v>-130600</v>
       </c>
       <c r="E102" s="3">
+        <v>461200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-183000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-210400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>336200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>56200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>94000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-70800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>131200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-58200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-285600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>322400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-58800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-88100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,256 +665,268 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>560600</v>
+      </c>
+      <c r="E8" s="3">
         <v>685000</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
         <v>792000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>730600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>405600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>607900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>355700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>563300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>453200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>865300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>578800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>542900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>329400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>468400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E9" s="3">
         <v>153000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>457700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>313400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>396100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>363000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>311000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>294300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>282600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>256300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>233100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>212200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>200500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>222400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>238500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>154800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>156900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>417500</v>
+      </c>
+      <c r="E10" s="3">
         <v>532000</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3">
         <v>395900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>367600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>94600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>313600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>307000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>220100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>653100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>378300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>320500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>462200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>174600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>311500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,8 +947,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,64 +1063,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E14" s="3">
         <v>10700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>122900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>144600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-46300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>8900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>12600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1181,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,120 +1203,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>393600</v>
+      </c>
+      <c r="E17" s="3">
         <v>480300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1043400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>664400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>538900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>491300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>452200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>406000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>414400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>364300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>270000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>257900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>231900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>270500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>280400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>186700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>205700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E18" s="3">
         <v>204700</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3">
         <v>253100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>239300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-46600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>201900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-58700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>199000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>183200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>607400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>346900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>272400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>420300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>142700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>262700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,22 +1344,23 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>8</v>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1357,19 +1390,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1424,8 +1460,11 @@
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,120 +1519,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>167100</v>
+      </c>
+      <c r="E23" s="3">
         <v>204700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1712600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>253200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>239200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-46600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>201900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-58600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>183200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>607500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>346900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>272300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>420200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>262800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-149500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-166900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>22800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-5400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-21600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-67500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-2600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>32600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>82800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,120 +1696,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>101500</v>
+      </c>
+      <c r="E26" s="3">
         <v>103900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1563100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>230400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>244700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-25000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>155900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>195500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>185800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>614400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>290300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>239700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>337400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>137200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>242100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E27" s="3">
         <v>77900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1611200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>211800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>224600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-31900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>145600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>184600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>174800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>604300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>278200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>226100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>321700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>121400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>225200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1873,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1854,12 +1914,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>10100</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1872,8 +1932,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1991,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,22 +2050,25 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>8</v>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2029,75 +2098,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E33" s="3">
         <v>77900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1611200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>211800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>224600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>145600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>184600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>174800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>604300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>288300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>226100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>321700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>121400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>225200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,125 +2227,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E35" s="3">
         <v>77900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1611200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>211800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>224600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>145600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>184600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>174800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>604300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>288300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>226100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>321700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>121400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>225200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2375,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,64 +2398,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>944900</v>
+      </c>
+      <c r="E41" s="3">
         <v>841000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1013200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>360500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>528700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>738200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>406000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>340900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>251100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>330100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>193200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>233200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>295800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>279800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>560000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>236600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>290600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2425,64 +2514,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>385000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1120700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>324200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4129900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5653200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5001200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5497200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>7312600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4094800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3611200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1315600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1231900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1105300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1916500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2812700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1986900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1812400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,23 +2632,26 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="3">
         <v>21800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>24200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2569,8 +2667,8 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2593,8 +2691,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,82 +2750,88 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30850600</v>
+      </c>
+      <c r="E47" s="3">
         <v>27451200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21402200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18650600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>37605900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34289000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>29886800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>24951000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>26559100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25501900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>20917900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20072900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20296200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18724200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18987400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>17146900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>15721100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E48" s="3">
         <v>54500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>55800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32100</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2737,8 +2844,8 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2761,23 +2868,26 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="3">
         <v>64500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>65500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>66000</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2793,8 +2903,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2817,8 +2927,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2986,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,64 +3045,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E52" s="3">
         <v>230100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>287700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>323700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>170900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>206500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>198500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>185800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>229900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>155700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>161400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>179700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>150300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>184500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>223000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>306200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>314400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3163,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33252100</v>
+      </c>
+      <c r="E54" s="3">
         <v>30406400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23752100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24193500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>44863500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>41347900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>36792400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33409600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31691000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>30090800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22943700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22011900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22213600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21404800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>23000000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>20030000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>18399500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3247,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,176 +3270,186 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E57" s="3">
         <v>129900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>232300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>176700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1125700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2625600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>364000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>304500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2225400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1975200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1262500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1185100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1331900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1241300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1942300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1510000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1460600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17547700</v>
+      </c>
+      <c r="E58" s="3">
         <v>14666900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9171500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>10814100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>27916200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>23110400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>21480200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>18441800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15554000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14387000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8757100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7635500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8662100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7848000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8261400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6277600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5190600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>404200</v>
+      </c>
+      <c r="E59" s="3">
         <v>390900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>435100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>439600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>662900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>885600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>644300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>544600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>515900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>485300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>380000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>368400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>308400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>386000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>377600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>359300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>278400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,64 +3504,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8185700</v>
+      </c>
+      <c r="E61" s="3">
         <v>8275400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7412800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7014600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7720100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7405900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7297800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>6952100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7102300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7254900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6707800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7031000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7084400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7237000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7787800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7557600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7990600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3451,20 +3596,20 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>3900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3477,8 +3622,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3681,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3740,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3799,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>27931100</v>
+      </c>
+      <c r="E66" s="3">
         <v>25077200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>18459900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18929600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37705700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>34169500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>30074400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>26587300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>25693300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24347400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17234900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16348000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17523400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16833200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>18575200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15927900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15139400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3883,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3940,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +3999,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3850,13 +4017,13 @@
         <v>813000</v>
       </c>
       <c r="G70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="H70" s="3">
         <v>423400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -3891,8 +4058,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4117,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1108900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1094600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>549700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>545700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>528900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>768600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>830700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1014900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1000500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>995700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>559500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>424900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>352400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>184400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>210500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4235,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4294,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4353,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4508000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4516200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4479300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4450900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6734300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6755000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6718000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6822300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5997700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5743300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5708800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5663900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4690200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4571600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4424800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4102100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3260100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,125 +4471,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68600</v>
+      </c>
+      <c r="E81" s="3">
         <v>77900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1611200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>211800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>224600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>145600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>184600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>174800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>604300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>288300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>226100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>321700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>121400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>225200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4619,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4478,8 +4676,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4735,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4794,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4853,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4912,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,64 +4971,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-880400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2766300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1311400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>693800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>466800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-272500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-316900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>513700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-281900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-274300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>35400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-378800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>36800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5055,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4892,8 +5112,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5171,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,64 +5230,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2322300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5395500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>16363200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16660800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-724100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-146600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-271900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>216200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-208000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1206200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-333500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,19 +5314,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-41600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-228500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-207800</v>
       </c>
       <c r="G96" s="3">
         <v>-207800</v>
@@ -5103,22 +5336,22 @@
         <v>-207800</v>
       </c>
       <c r="I96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-207700</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-184600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-170200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-169900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-153700</v>
       </c>
       <c r="O96" s="3">
         <v>-153700</v>
@@ -5127,19 +5360,22 @@
         <v>-153700</v>
       </c>
       <c r="Q96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="R96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-115400</v>
       </c>
       <c r="S96" s="3">
         <v>-115400</v>
       </c>
       <c r="T96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5430,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5489,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,64 +5548,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2411100</v>
+      </c>
+      <c r="E100" s="3">
         <v>6145400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-18668300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4793300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1643200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3263100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3147300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1229200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5372500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>530500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-763000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>504100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2049000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1334000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>192400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,60 +5666,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-130600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>461200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-183000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-210400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>336200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>56200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>94000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-70800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>131200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-58200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-285600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>322400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-58800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-88100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>883600</v>
+      </c>
+      <c r="E8" s="3">
         <v>560600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>685000</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3">
         <v>792000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>730600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>405600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>607900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>355700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>563300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>453200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>865300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>578800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>542900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>329400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>468400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>141100</v>
+      </c>
+      <c r="E9" s="3">
         <v>143100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>153000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>457700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>313400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>396100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>363000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>311000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>294300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>282600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>256300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>233100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>212200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>200500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>222400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>238500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>154800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>156900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>742500</v>
+      </c>
+      <c r="E10" s="3">
         <v>417500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>532000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3">
         <v>395900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>367600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>94600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>313600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>307000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>220100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>653100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>378300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>320500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>462200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>174600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>311500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -948,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1007,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,67 +1083,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>122900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>144600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-46300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>8900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>12600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E17" s="3">
         <v>393600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>480300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1043400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>664400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>538900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>491300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>452200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>406000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>414400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>364300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>270000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>257900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>231900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>270500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>280400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>186700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>205700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>399600</v>
+      </c>
+      <c r="E18" s="3">
         <v>167000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>204700</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3">
         <v>253100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>239300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-46600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>201900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-58700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>199000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>183200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>607400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>346900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>272400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>420300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>142700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>262700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,14 +1390,14 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1393,24 +1427,27 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>400000</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>8</v>
@@ -1463,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1522,126 +1562,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>399600</v>
+      </c>
+      <c r="E23" s="3">
         <v>167100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>204700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1712600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>253200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>239200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-46600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>201900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-58600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>183200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>607500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>346900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>272300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>420200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>262800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>98300</v>
+      </c>
+      <c r="E24" s="3">
         <v>65600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-149500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-166900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-5400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-21600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-67500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-2600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>56700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>32600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>82800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>301300</v>
+      </c>
+      <c r="E26" s="3">
         <v>101500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>103900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1563100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>230400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>244700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-25000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>155900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>195500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>185800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>614400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>290300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>239700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>337400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>137200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>242100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E27" s="3">
         <v>68600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>77900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1611200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>211800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>224600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>145600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>184600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>174800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>604300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>278200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>226100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>321700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>121400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>225200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,31 +1934,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1917,12 +1978,12 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>10100</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,14 +2134,14 @@
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2101,78 +2171,84 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E33" s="3">
         <v>68600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>77900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1611200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>211800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>224600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>145600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>184600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>174800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>604300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>288300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>226100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>321700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>121400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>225200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E35" s="3">
         <v>68600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>77900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1611200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>211800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>224600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>145600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>184600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>174800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>604300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>288300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>226100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>321700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>121400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>225200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,67 +2485,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1038500</v>
+      </c>
+      <c r="E41" s="3">
         <v>944900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>841000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1013200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>360500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>528700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>738200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>406000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>340900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>251100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>330100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>193200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>233200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>295800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>279800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>560000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>236600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>290600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2517,67 +2607,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>709300</v>
+      </c>
+      <c r="E43" s="3">
         <v>385000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1120700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>324200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4129900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5653200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5001200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5497200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7312600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4094800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3611200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1315600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1231900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1105300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1916500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2812700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1986900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1812400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2635,26 +2731,29 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="3">
         <v>21800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>24200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2670,8 +2769,8 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2694,8 +2793,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2753,88 +2855,94 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>32341700</v>
+      </c>
+      <c r="E47" s="3">
         <v>30850600</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>27451200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>21402200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18650600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>37605900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34289000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>29886800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>24951000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>26559100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25501900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20917900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20072900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20296200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18724200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18987400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>17146900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>15721100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E48" s="3">
         <v>26900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>54500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>55800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32100</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2847,8 +2955,8 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2871,26 +2979,29 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3">
+        <v>62800</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="3">
         <v>64500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>65500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>66000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2906,8 +3017,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,67 +3165,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E52" s="3">
         <v>135600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>230100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>287700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>323700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>170900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>206500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>198500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>185800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>229900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>155700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>161400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>179700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>150300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>184500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>223000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>306200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>314400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35184100</v>
+      </c>
+      <c r="E54" s="3">
         <v>33252100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30406400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>23752100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>24193500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>44863500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>41347900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>36792400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33409600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31691000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>30090800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22943700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22011900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22213600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21404800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>23000000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>20030000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>18399500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,185 +3401,195 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E57" s="3">
         <v>97000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>129900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>232300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>176700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1125700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2625600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>364000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>304500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2225400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1975200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1262500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1185100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1331900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1241300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1942300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1510000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1460600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19522500</v>
+      </c>
+      <c r="E58" s="3">
         <v>17547700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14666900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9171500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>10814100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>27916200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23110400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>21480200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>18441800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15554000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14387000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8757100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7635500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8662100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7848000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8261400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6277600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5190600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>696400</v>
+      </c>
+      <c r="E59" s="3">
         <v>404200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>390900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>435100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>439600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>662900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>885600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>644300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>544600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>515900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>485300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>380000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>368400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>308400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>386000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>377600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>359300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>278400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3507,67 +3647,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7649800</v>
+      </c>
+      <c r="E61" s="3">
         <v>8185700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8275400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7412800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7014600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7720100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7405900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7297800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6952100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7102300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7254900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6707800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7031000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7084400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7237000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7787800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7557600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7990600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3599,20 +3745,20 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>3900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>29661300</v>
+      </c>
+      <c r="E66" s="3">
         <v>27931100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>25077200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18459900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18929600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>37705700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>34169500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>30074400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26587300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>25693300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24347400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17234900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16348000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17523400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16833200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18575200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15927900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15139400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4020,13 +4188,13 @@
         <v>813000</v>
       </c>
       <c r="H70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="I70" s="3">
         <v>423400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-914300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1108900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1094600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>549700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>545700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>528900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>768600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>830700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1014900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1000500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>995700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>559500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>424900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>352400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>184400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>210500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4709800</v>
+      </c>
+      <c r="E76" s="3">
         <v>4508000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4516200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4479300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4450900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6734300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6755000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6718000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6822300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5997700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5743300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5708800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5663900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4690200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4571600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4424800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4102100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>3260100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>277600</v>
+      </c>
+      <c r="E81" s="3">
         <v>68600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>77900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1611200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>211800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>224600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>145600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>184600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>174800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>604300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>288300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>226100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>321700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>121400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>225200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,31 +4818,32 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -4679,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-495400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-29900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-880400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2766300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1311400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>693800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>466800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-272500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-316900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>513700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-281900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-274300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>35400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-378800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>36800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5115,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-798500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2322300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5395500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>16363200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16660800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-724100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-146600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-271900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>216200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-208000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1206200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-333500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,22 +5548,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-82900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-62400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-41600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-228500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-207800</v>
       </c>
       <c r="H96" s="3">
         <v>-207800</v>
@@ -5339,22 +5573,22 @@
         <v>-207800</v>
       </c>
       <c r="J96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-207700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-184600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-170200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-169900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-153700</v>
       </c>
       <c r="P96" s="3">
         <v>-153700</v>
@@ -5363,19 +5597,22 @@
         <v>-153700</v>
       </c>
       <c r="R96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="S96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-115400</v>
       </c>
       <c r="T96" s="3">
         <v>-115400</v>
       </c>
       <c r="U96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="V96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,67 +5794,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1387900</v>
+      </c>
+      <c r="E100" s="3">
         <v>2411100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>6145400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18668300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4793300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1643200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3263100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3147300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1229200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5372500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>530500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-763000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>504100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2049000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1334000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>192400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E102" s="3">
         <v>58900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-130600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>461200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-183000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-210400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>336200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>56200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>94000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-70800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>131200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-58200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-285600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>322400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-58800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-88100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>608100</v>
+      </c>
+      <c r="E8" s="3">
         <v>883600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>560600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>685000</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3">
         <v>792000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>730600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>405600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>607900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>355700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>563300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>453200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>865300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>578800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>542900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>329400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>468400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>130200</v>
+      </c>
+      <c r="E9" s="3">
         <v>141100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>143100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>153000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>457700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>313400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>396100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>363000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>311000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>294300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>282600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>256300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>233100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>212200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>222400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>238500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>154800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>156900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>477900</v>
+      </c>
+      <c r="E10" s="3">
         <v>742500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>417500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>532000</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3">
         <v>395900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>367600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>94600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>313600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>307000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>220100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>653100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>378300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>320500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>462200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>174600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>311500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,70 +1103,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-10100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>122900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>144600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-46300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>12600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>463400</v>
+      </c>
+      <c r="E17" s="3">
         <v>484000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>393600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>480300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1043400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>664400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>538900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>491300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>452200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>406000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>414400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>364300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>270000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>257900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>231900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>270500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>280400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>186700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>205700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>144700</v>
+      </c>
+      <c r="E18" s="3">
         <v>399600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>167000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>204700</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
         <v>253100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>239300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-46600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>201900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-58700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>199000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>183200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>607400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>346900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>272400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>420300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>142700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>262700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,8 +1412,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1393,14 +1427,14 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1430,28 +1464,31 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E21" s="3">
         <v>400000</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1503,8 +1540,11 @@
       <c r="V21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,132 +1605,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E23" s="3">
         <v>399600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>167100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>204700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1712600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>253200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>239200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-46600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>201900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-58600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>199000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>183200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>607500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>346900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>272300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>420200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>262800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>98300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>65600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-149500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-166900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-21600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-67500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>56700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>82800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E26" s="3">
         <v>301300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>101500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>103900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1563100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>230400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>244700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>155900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>8900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>195500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>185800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>614400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>290300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>239700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>337400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>137200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>242100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E27" s="3">
         <v>277600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>68600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>77900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1611200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>211800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>224600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>145600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>184600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>174800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>604300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>278200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>226100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>321700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>121400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>225200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1963,8 +2024,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1981,12 +2042,12 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>10100</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,8 +2190,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2137,14 +2207,14 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2174,81 +2244,87 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E33" s="3">
         <v>277600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>68600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>77900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1611200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>211800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>224600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>145600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>184600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>174800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>604300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>288300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>226100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>321700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>121400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>225200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E35" s="3">
         <v>277600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>68600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>77900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1611200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>211800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>224600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>145600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>184600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>174800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>604300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>288300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>226100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>321700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>121400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>225200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,70 +2572,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>956200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1038500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>944900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>841000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1013200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>360500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>528700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>738200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>406000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>340900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>251100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>330100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>193200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>233200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>295800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>279800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>560000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>236600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>290600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2610,70 +2700,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1829100</v>
+      </c>
+      <c r="E43" s="3">
         <v>709300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>385000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1120700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>324200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4129900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5653200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5001200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5497200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7312600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4094800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3611200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1315600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1231900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1105300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1916500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2812700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1986900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1812400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,29 +2830,32 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E45" s="3">
         <v>39800</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" s="3">
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3">
         <v>21800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>24200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2772,8 +2871,8 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2796,8 +2895,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,94 +2960,100 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33122200</v>
+      </c>
+      <c r="E47" s="3">
         <v>32341700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>30850600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>27451200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>21402200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18650600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>37605900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34289000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29886800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>24951000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26559100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25501900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20917900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20072900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20296200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18724200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18987400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>17146900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>15721100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E48" s="3">
         <v>56300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>26900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>54500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>53200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>55800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2958,8 +3066,8 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -2982,29 +3090,32 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E49" s="3">
         <v>62800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3">
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3">
         <v>64500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>65500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>66000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3020,8 +3131,8 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,70 +3285,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>238500</v>
+      </c>
+      <c r="E52" s="3">
         <v>136000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>135600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>230100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>287700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>323700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>170900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>206500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>198500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>185800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>229900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>155700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>161400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>179700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>150300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>184500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>223000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>306200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>314400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37250400</v>
+      </c>
+      <c r="E54" s="3">
         <v>35184100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33252100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30406400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23752100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>24193500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>44863500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>41347900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36792400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33409600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31691000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>30090800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22943700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22011900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22213600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21404800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>23000000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>20030000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>18399500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,194 +3532,204 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>123500</v>
+      </c>
+      <c r="E57" s="3">
         <v>104100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>97000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>129900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>232300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>176700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1125700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2625600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>364000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>304500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2225400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1975200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1262500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1185100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1331900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1241300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1942300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1510000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1460600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21290900</v>
+      </c>
+      <c r="E58" s="3">
         <v>19522500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17547700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14666900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9171500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>10814100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>27916200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23110400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>21480200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>18441800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15554000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14387000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8757100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7635500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8662100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7848000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8261400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6277600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5190600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E59" s="3">
         <v>696400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>404200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>390900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>435100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>439600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>662900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>885600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>644300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>544600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>515900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>485300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>380000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>368400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>308400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>386000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>377600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>359300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>278400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3650,70 +3790,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7846400</v>
+      </c>
+      <c r="E61" s="3">
         <v>7649800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8185700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8275400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7412800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7014600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7720100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7405900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7297800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6952100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7102300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7254900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6707800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7031000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7084400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7237000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7787800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7557600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7990600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3748,20 +3894,20 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>3900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>31178300</v>
+      </c>
+      <c r="E66" s="3">
         <v>29661300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>27931100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>25077200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18459900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18929600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>37705700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>34169500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30074400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26587300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>25693300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24347400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17234900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16348000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17523400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16833200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18575200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15927900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15139400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4191,13 +4359,13 @@
         <v>813000</v>
       </c>
       <c r="I70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="J70" s="3">
         <v>423400</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-886300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-914300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1108900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1094600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>549700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>545700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>528900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>768600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>830700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1014900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1000500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>995700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>559500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>424900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>352400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>184400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>210500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5259100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4709800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4508000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4516200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4479300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4450900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6734300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6755000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6718000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6822300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5997700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5743300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5708800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5663900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4690200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4571600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4424800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4102100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>3260100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E81" s="3">
         <v>277600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>68600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>77900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1611200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>211800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>224600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>145600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>184600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>174800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>604300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>288300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>226100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>321700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>121400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>225200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,17 +5017,18 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>8</v>
       </c>
@@ -4845,8 +5044,8 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-511200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-495400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-29900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-880400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2766300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1311400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>693800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>466800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-300400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-272500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-316900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>513700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-281900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-274300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>35400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-378800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +5497,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1575600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-798500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2322300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5395500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>16363200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16660800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-724100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-146600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-271900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>216200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-208000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1206200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-333500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,25 +5782,26 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-82900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-62400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-41600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-228500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-207800</v>
       </c>
       <c r="I96" s="3">
         <v>-207800</v>
@@ -5576,22 +5810,22 @@
         <v>-207800</v>
       </c>
       <c r="K96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="L96" s="3">
         <v>-207700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-184600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-170200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-169900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-153700</v>
       </c>
       <c r="Q96" s="3">
         <v>-153700</v>
@@ -5600,19 +5834,22 @@
         <v>-153700</v>
       </c>
       <c r="S96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="T96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-115400</v>
       </c>
       <c r="U96" s="3">
         <v>-115400</v>
       </c>
       <c r="V96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="W96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,70 +6040,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2107100</v>
+      </c>
+      <c r="E100" s="3">
         <v>1387900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2411100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6145400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18668300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4793300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1643200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3263100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3147300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1229200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5372500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>530500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-763000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>504100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2049000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1334000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>192400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E102" s="3">
         <v>94000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>58900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-130600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>461200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-183000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-210400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>336200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>56200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>94000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-70800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>131200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-58200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-285600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>322400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-58800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,307 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>608100</v>
+        <v>929000</v>
       </c>
       <c r="E8" s="3">
+        <v>1557000</v>
+      </c>
+      <c r="F8" s="3">
         <v>883600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>560600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>685000</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>792000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>730600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>405600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>607900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>355700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>563300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>453200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>865300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>578800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>542900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>329400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>468400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>130200</v>
+        <v>154200</v>
       </c>
       <c r="E9" s="3">
+        <v>271300</v>
+      </c>
+      <c r="F9" s="3">
         <v>141100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>153000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>457700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>313400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>396100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>363000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>311000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>294300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>282600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>256300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>233100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>212200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>222400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>238500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>154800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>156900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>477900</v>
+        <v>774800</v>
       </c>
       <c r="E10" s="3">
+        <v>1285700</v>
+      </c>
+      <c r="F10" s="3">
         <v>742500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>417500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>532000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>395900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>367600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>94600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>313600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>307000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>220100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>653100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>378300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>320500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>462200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>174600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>311500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,73 +1123,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-10100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>122900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>144600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-46300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>12600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>463400</v>
+        <v>726700</v>
       </c>
       <c r="E17" s="3">
+        <v>1012700</v>
+      </c>
+      <c r="F17" s="3">
         <v>484000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>393600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>480300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1043400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>664400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>538900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>491300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>452200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>406000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>414400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>364300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>270000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>257900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>231900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>270500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>280400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>186700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>205700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>144700</v>
+        <v>202300</v>
       </c>
       <c r="E18" s="3">
+        <v>544300</v>
+      </c>
+      <c r="F18" s="3">
         <v>399600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>167000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>204700</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>253100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>239300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-46600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>201900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-58700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>199000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>183200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>607400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>346900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>272400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>420300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>142700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>262700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,8 +1446,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1430,14 +1464,14 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1467,31 +1501,34 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>145600</v>
+        <v>204100</v>
       </c>
       <c r="E21" s="3">
+        <v>545600</v>
+      </c>
+      <c r="F21" s="3">
         <v>400000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1543,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,138 +1648,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>144600</v>
+        <v>202200</v>
       </c>
       <c r="E23" s="3">
+        <v>544200</v>
+      </c>
+      <c r="F23" s="3">
         <v>399600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>167100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>204700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1712600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>253200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>239200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-46600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>201900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-58600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>199000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>183200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>607500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>346900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>272300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>420200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>142800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>262800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-1100</v>
+        <v>31600</v>
       </c>
       <c r="E24" s="3">
+        <v>97200</v>
+      </c>
+      <c r="F24" s="3">
         <v>98300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>65600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-149500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-166900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-21600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-67500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-6900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>56700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>82800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>145700</v>
+        <v>170700</v>
       </c>
       <c r="E26" s="3">
+        <v>447100</v>
+      </c>
+      <c r="F26" s="3">
         <v>301300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>101500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>103900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1563100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>230400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>244700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-25000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>155900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>185800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>614400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>290300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>239700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>337400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>137200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>242100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>121300</v>
+        <v>146100</v>
       </c>
       <c r="E27" s="3">
+        <v>398900</v>
+      </c>
+      <c r="F27" s="3">
         <v>277600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>68600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>77900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1611200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>211800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>224600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>145600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>184600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>174800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>604300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>278200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>226100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>321700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>121400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>225200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2027,8 +2088,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2045,12 +2106,12 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>10100</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,8 +2260,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2210,14 +2280,14 @@
       <c r="G32" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2247,84 +2317,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>121300</v>
+        <v>146100</v>
       </c>
       <c r="E33" s="3">
+        <v>398900</v>
+      </c>
+      <c r="F33" s="3">
         <v>277600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>68600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>77900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1611200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>211800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>224600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>145600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>184600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>174800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>604300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>288300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>226100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>321700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>121400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>225200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>121300</v>
+        <v>146100</v>
       </c>
       <c r="E35" s="3">
+        <v>398900</v>
+      </c>
+      <c r="F35" s="3">
         <v>277600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>68600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>77900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1611200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>211800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>224600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>145600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>184600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>174800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>604300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>288300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>226100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>321700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>121400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>225200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1366700</v>
+      </c>
+      <c r="E41" s="3">
         <v>956200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1038500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>944900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>841000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1013200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>360500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>528700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>738200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>406000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>340900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>251100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>330100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>193200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>233200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>295800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>279800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>560000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>236600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>290600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2703,73 +2793,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>526700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1829100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>709300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>385000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1120700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>324200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4129900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5653200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5001200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5497200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7312600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4094800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3611200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1315600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1231900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1105300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1916500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2812700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1986900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1812400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,32 +2929,35 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E45" s="3">
         <v>41300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39800</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3">
         <v>21800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>24200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2874,8 +2973,8 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2898,8 +2997,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2963,100 +3065,106 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>37392900</v>
+      </c>
+      <c r="E47" s="3">
         <v>33122200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>32341700</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>30850600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>27451200</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21402200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>18650600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>37605900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34289000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>29886800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>24951000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26559100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25501900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>20917900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20072900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20296200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18724200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18987400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>17146900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>15721100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>175200</v>
+      </c>
+      <c r="E48" s="3">
         <v>53400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>26900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>54500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>53200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>55800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3069,8 +3177,8 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3093,32 +3201,35 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E49" s="3">
         <v>61600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>62800</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3">
         <v>64500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>65500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>66000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3134,8 +3245,8 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E52" s="3">
         <v>238500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>136000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>135600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>230100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>287700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>323700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>170900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>206500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>198500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>185800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>229900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>155700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>161400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>179700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>150300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>184500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>223000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>306200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>314400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>41604100</v>
+      </c>
+      <c r="E54" s="3">
         <v>37250400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>35184100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33252100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30406400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23752100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24193500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>44863500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>41347900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36792400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33409600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31691000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>30090800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22943700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22011900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22213600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21404800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>23000000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>20030000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>18399500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,203 +3663,213 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>331700</v>
+      </c>
+      <c r="E57" s="3">
         <v>123500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>104100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>97000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>129900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>232300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>176700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1125700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2625600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>364000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>304500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2225400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1975200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1262500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1185100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1331900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1241300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1942300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1510000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1460600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>22760000</v>
+      </c>
+      <c r="E58" s="3">
         <v>21290900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19522500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17547700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14666900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9171500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>10814100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>27916200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>23110400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>21480200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>18441800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15554000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14387000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>8757100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7635500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8662100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7848000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8261400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6277600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5190600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1127500</v>
+      </c>
+      <c r="E59" s="3">
         <v>446000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>696400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>404200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>390900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>435100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>439600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>662900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>885600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>644300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>544600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>515900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>485300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>380000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>368400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>308400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>386000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>377600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>359300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>278400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3793,73 +3933,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8790900</v>
+      </c>
+      <c r="E61" s="3">
         <v>7846400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7649800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8185700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8275400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7412800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7014600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7720100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7405900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7297800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6952100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7102300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7254900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6707800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7031000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7084400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7237000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7787800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7557600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7990600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3897,20 +4043,20 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>3900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>35048000</v>
+      </c>
+      <c r="E66" s="3">
         <v>31178300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>29661300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>27931100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25077200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18459900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18929600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37705700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34169500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30074400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26587300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>25693300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24347400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17234900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16348000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17523400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16833200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>18575200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15927900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15139400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,13 +4503,16 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>813000</v>
+        <v>1262500</v>
       </c>
       <c r="E70" s="3">
         <v>813000</v>
@@ -4362,13 +4530,13 @@
         <v>813000</v>
       </c>
       <c r="J70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="K70" s="3">
         <v>423400</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4403,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-856800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-886300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-914300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1108900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1094600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>549700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>545700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>528900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>768600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>830700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1014900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1000500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>995700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>559500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>424900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>352400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>184400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>210500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5293600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5259100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4709800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4508000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4516200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4479300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4450900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6734300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6755000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6718000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6822300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>5997700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5743300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5708800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5663900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4690200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4571600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4424800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4102100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>3260100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>121300</v>
+        <v>146100</v>
       </c>
       <c r="E81" s="3">
+        <v>398900</v>
+      </c>
+      <c r="F81" s="3">
         <v>277600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>68600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>77900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1611200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>211800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>224600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>145600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>184600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>174800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>604300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>288300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>226100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>321700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>121400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>225200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,20 +5216,21 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5047,8 +5246,8 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-511200</v>
+        <v>320100</v>
       </c>
       <c r="E89" s="3">
+        <v>-1006600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-495400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-29900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-880400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2766300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1311400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>693800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>466800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-300400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-272500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-316900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>513700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-281900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-274300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>35400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-378800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1575600</v>
+        <v>5181200</v>
       </c>
       <c r="E94" s="3">
+        <v>-2374100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-798500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2322300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5395500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>16363200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16660800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-724100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-146600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-271900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>216200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-208000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1206200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-333500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,28 +6016,29 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-83000</v>
+        <v>-93300</v>
       </c>
       <c r="E96" s="3">
+        <v>-165900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-82900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-62400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-41600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-228500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-207800</v>
       </c>
       <c r="J96" s="3">
         <v>-207800</v>
@@ -5813,22 +6047,22 @@
         <v>-207800</v>
       </c>
       <c r="L96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="M96" s="3">
         <v>-207700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-184600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-170200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-169900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-153700</v>
       </c>
       <c r="R96" s="3">
         <v>-153700</v>
@@ -5837,19 +6071,22 @@
         <v>-153700</v>
       </c>
       <c r="T96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="U96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-115400</v>
       </c>
       <c r="V96" s="3">
         <v>-115400</v>
       </c>
       <c r="W96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,73 +6286,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2107100</v>
+        <v>-5134600</v>
       </c>
       <c r="E100" s="3">
+        <v>3495000</v>
+      </c>
+      <c r="F100" s="3">
         <v>1387900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2411100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6145400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18668300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4793300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1643200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3263100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3147300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1229200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5372500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>530500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-763000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>504100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2049000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1334000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>192400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,69 +6422,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20200</v>
+        <v>366700</v>
       </c>
       <c r="E102" s="3">
+        <v>114300</v>
+      </c>
+      <c r="F102" s="3">
         <v>94000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>58900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-130600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>461200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-183000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-210400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>336200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>56200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>94000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-70800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>131200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-58200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-285600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>322400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-58800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-88100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,319 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1042600</v>
+      </c>
+      <c r="E8" s="3">
         <v>929000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1557000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>883600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>560600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>685000</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>792000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>730600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>405600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>607900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>355700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>563300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>453200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>865300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>578800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>542900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>329400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>468400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>167700</v>
+      </c>
+      <c r="E9" s="3">
         <v>154200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>271300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>141100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>143100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>153000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>457700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>313400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>396100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>363000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>311000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>294300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>282600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>256300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>233100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>212200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>222400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>238500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>154800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>156900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>874900</v>
+      </c>
+      <c r="E10" s="3">
         <v>774800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1285700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>742500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>417500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>532000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>395900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>367600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>94600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>313600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>73100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>307000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>220100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>653100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>378300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>320500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>462200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>174600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>311500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1002,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1071,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-3500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-10100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>122900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>144600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-46300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>7500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>12600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1284,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>825300</v>
+      </c>
+      <c r="E17" s="3">
         <v>726700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1012700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>484000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>393600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>480300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1043400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>664400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>538900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>491300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>452200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>406000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>414400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>364300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>270000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>257900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>231900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>270500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>280400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>186700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>205700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E18" s="3">
         <v>202300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>544300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>399600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>167000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>204700</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>253100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>239300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-46600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>201900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-58700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>199000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>183200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>607400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>346900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>272400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>420300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>142700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>262700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1479,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1467,14 +1500,14 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1504,34 +1537,37 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E21" s="3">
         <v>204100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>545600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400000</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1583,8 +1619,11 @@
       <c r="X21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,144 +1690,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E23" s="3">
         <v>202200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>544200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>399600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>167100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>204700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1712600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>253200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>239200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-46600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>201900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-58600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>199000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>183200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>607500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>346900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>272300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>420200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>142800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>262800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E24" s="3">
         <v>31600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>97200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>98300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>65600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-149500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-166900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-21600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-67500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-6900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>56700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>82800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>187800</v>
+      </c>
+      <c r="E26" s="3">
         <v>170700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>447100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>301300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>101500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>103900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1563100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>230400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>244700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-25000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>155900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>185800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>614400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>290300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>239700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>337400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>137200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>242100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E27" s="3">
         <v>146100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>398900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>277600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>68600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>77900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1611200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>211800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>224600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>145600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>184600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>174800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>604300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>278200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>226100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>321700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>121400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>225200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2091,8 +2151,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2109,12 +2169,12 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>10100</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2127,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,8 +2329,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2283,14 +2352,14 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2320,87 +2389,93 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E33" s="3">
         <v>146100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>398900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>277600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>68600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>77900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1611200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>211800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>224600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>145600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>184600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>174800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>604300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>288300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>226100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>321700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>121400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>225200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E35" s="3">
         <v>146100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>398900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>277600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>68600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>77900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1611200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>211800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>224600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>145600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>184600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>174800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>604300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>288300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>226100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>321700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>121400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>225200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1332600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1366700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>956200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1038500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>944900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>841000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1013200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>360500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>528700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>738200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>406000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>340900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>251100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>330100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>193200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>233200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>295800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>279800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>560000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>236600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>290600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2796,76 +2885,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>546300</v>
+      </c>
+      <c r="E43" s="3">
         <v>526700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1829100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>709300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>385000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1120700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>324200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4129900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5653200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5001200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5497200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7312600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4094800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3611200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1315600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1231900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1105300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1916500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2812700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1986900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1812400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,35 +3027,38 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>115100</v>
+      </c>
+      <c r="E45" s="3">
         <v>82000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>39800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3">
         <v>21800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>24200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2976,8 +3074,8 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3000,8 +3098,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3068,106 +3169,112 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>35832100</v>
+      </c>
+      <c r="E47" s="3">
         <v>37392900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>33122200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>32341700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30850600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>27451200</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21402200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>18650600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>37605900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34289000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>29886800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>24951000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>26559100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25501900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>20917900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20072900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20296200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>18724200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18987400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>17146900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>15721100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>173700</v>
+      </c>
+      <c r="E48" s="3">
         <v>175200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>53400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>26900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>54500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>53200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>55800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3180,8 +3287,8 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3204,35 +3311,38 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>228300</v>
+      </c>
+      <c r="E49" s="3">
         <v>103200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>61600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>62800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3">
         <v>64500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>65500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>66000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3248,8 +3358,8 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3272,8 +3382,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>195900</v>
+      </c>
+      <c r="E52" s="3">
         <v>194700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>238500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>136000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>135600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>230100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>287700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>323700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>170900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>206500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>198500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>185800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>229900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>155700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>161400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>179700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>150300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>184500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>223000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>306200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>314400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>39742200</v>
+      </c>
+      <c r="E54" s="3">
         <v>41604100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37250400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35184100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33252100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30406400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23752100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24193500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>44863500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>41347900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36792400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33409600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>31691000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>30090800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22943700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22011900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22213600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21404800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>23000000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>20030000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>18399500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,212 +3793,222 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>316700</v>
+      </c>
+      <c r="E57" s="3">
         <v>331700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>123500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>104100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>97000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>129900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>232300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>176700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1125700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2625600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>364000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>304500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2225400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1975200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1262500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1185100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1331900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1241300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1942300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1510000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1460600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>20592900</v>
+      </c>
+      <c r="E58" s="3">
         <v>22760000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>21290900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19522500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17547700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14666900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9171500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>10814100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>27916200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>23110400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>21480200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>18441800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15554000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14387000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>8757100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7635500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8662100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7848000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8261400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6277600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5190600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>648200</v>
+      </c>
+      <c r="E59" s="3">
         <v>1127500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>446000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>696400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>404200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>390900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>435100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>439600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>662900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>885600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>644300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>544600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>515900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>485300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>380000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>368400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>308400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>386000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>377600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>359300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>278400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3936,99 +4075,105 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9188100</v>
+      </c>
+      <c r="E61" s="3">
         <v>8790900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>7846400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7649800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>8185700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8275400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>7412800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7014600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7720100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7405900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7297800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6952100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7102300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7254900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6707800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7031000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7084400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7237000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7787800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7557600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7990600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>440700</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4046,20 +4191,20 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>3900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19200</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4072,8 +4217,11 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33138200</v>
+      </c>
+      <c r="E66" s="3">
         <v>35048000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>31178300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>29661300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>27931100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25077200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>18459900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18929600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37705700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34169500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>30074400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26587300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>25693300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24347400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17234900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16348000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17523400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16833200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>18575200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15927900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15139400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4515,7 +4682,7 @@
         <v>1262500</v>
       </c>
       <c r="E70" s="3">
-        <v>813000</v>
+        <v>1262500</v>
       </c>
       <c r="F70" s="3">
         <v>813000</v>
@@ -4533,13 +4700,13 @@
         <v>813000</v>
       </c>
       <c r="K70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="L70" s="3">
         <v>423400</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -4574,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-813000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-856800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-886300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-914300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1108900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1094600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>549700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>545700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>528900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>768600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>830700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1014900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1000500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>995700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>559500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>424900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>352400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>184400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>210500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5341600</v>
+      </c>
+      <c r="E76" s="3">
         <v>5293600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5259100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4709800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4508000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4516200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4479300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4450900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6734300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6755000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6718000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6822300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>5997700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5743300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5708800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5663900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4690200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4571600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4424800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4102100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>3260100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>160400</v>
+      </c>
+      <c r="E81" s="3">
         <v>146100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>398900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>277600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>68600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>77900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1611200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>211800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>224600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>145600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>184600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>174800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>604300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>288300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>226100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>321700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>121400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>225200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,23 +5414,24 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5249,8 +5447,8 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5285,8 +5483,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3570400</v>
+      </c>
+      <c r="E89" s="3">
         <v>320100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1006600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-495400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-29900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-880400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2766300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1311400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>693800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>466800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-300400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-272500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-316900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>513700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-281900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-274300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>35400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-378800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +5938,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5787,8 +6007,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500800</v>
+      </c>
+      <c r="E94" s="3">
         <v>5181200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2374100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-798500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2322300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5395500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16363200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16660800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-724100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-146600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-271900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>216200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-208000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1206200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-333500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,31 +6249,32 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-93300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-165900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-82900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-62400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-41600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-228500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-207800</v>
       </c>
       <c r="K96" s="3">
         <v>-207800</v>
@@ -6050,22 +6283,22 @@
         <v>-207800</v>
       </c>
       <c r="M96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="N96" s="3">
         <v>-207700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-184600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-170200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-169900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-153700</v>
       </c>
       <c r="S96" s="3">
         <v>-153700</v>
@@ -6074,19 +6307,22 @@
         <v>-153700</v>
       </c>
       <c r="U96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="V96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-115400</v>
       </c>
       <c r="W96" s="3">
         <v>-115400</v>
       </c>
       <c r="X96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,76 +6531,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3102600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5134600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3495000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1387900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2411100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6145400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18668300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4793300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1643200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3263100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3147300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1229200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5372500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>530500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-763000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>504100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2049000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1334000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>192400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,72 +6673,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E102" s="3">
         <v>366700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>114300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>94000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>58900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-130600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>461200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-183000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-210400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>336200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>56200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>94000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-70800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>131200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-58200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-33100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-285600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>322400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-58800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-88100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>139900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NRZ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>NRZ</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1699300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1042600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>929000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1557000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>883600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>560600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>685000</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>792000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>730600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>405600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>607900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>355700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>563300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>453200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>865300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>578800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>542900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>700700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>329400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>468400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>309100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>164000</v>
+      </c>
+      <c r="E9" s="3">
         <v>167700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>154200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>271300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>141100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>143100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>153000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>457700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>313400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>396100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>363000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>311000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>294300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>282600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>256300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>233100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>212200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>222400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>238500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>154800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>156900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>128300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1535300</v>
+      </c>
+      <c r="E10" s="3">
         <v>874900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>774800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1285700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>742500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>417500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>532000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>395900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>367600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>94600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>313600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>73100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>307000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>220100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>653100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>378300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>320500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>462200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>174600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>311500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>180800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,79 +1162,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-3500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-10100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>122900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>144600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-46300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>8900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>7500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1287,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>806600</v>
+      </c>
+      <c r="E17" s="3">
         <v>825300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>726700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1012700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>484000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>393600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>480300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1043400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>664400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>538900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>491300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>452200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>406000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>414400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>364300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>270000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>257900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>231900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>270500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>280400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>186700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>205700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>157100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>892700</v>
+      </c>
+      <c r="E18" s="3">
         <v>217300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>202300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>544300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>399600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>167000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>204700</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>253100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>239300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-46600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>201900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>199000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>183200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>607400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>346900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>272400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>420300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>142700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>262700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1480,8 +1513,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1503,14 +1537,14 @@
       <c r="I20" s="3">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1540,37 +1574,40 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>896800</v>
+      </c>
+      <c r="E21" s="3">
         <v>220200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>204100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>545600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>400000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1622,8 +1659,11 @@
       <c r="Y21" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1693,150 +1733,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>892700</v>
+      </c>
+      <c r="E23" s="3">
         <v>217300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>202200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>544200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>399600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>167100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>204700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1712600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1774100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>253200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>239200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-46600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>201900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-58600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>199000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>183200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>607500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>346900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>272300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>420200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>142800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>262800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>202800</v>
+      </c>
+      <c r="E24" s="3">
         <v>29500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>31600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>97200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>98300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>65600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-149500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-166900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-21600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-67500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-6900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>56700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>82800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20900</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>689900</v>
+      </c>
+      <c r="E26" s="3">
         <v>187800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>170700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>447100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>301300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>101500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>103900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1563100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1607300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>230400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>244700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-25000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>155900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>195500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>185800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>614400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>290300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>239700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>337400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>137200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>242100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>131100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>661900</v>
+      </c>
+      <c r="E27" s="3">
         <v>160400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>146100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>398900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>277600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>68600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1611200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1602300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>211800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>224600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>145600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>184600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>174800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>604300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>278200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>226100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>321700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>121400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>225200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2154,8 +2215,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2172,12 +2233,12 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>10100</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,8 +2399,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2355,14 +2425,14 @@
       <c r="I32" s="3">
         <v>0</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2392,90 +2462,96 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>661900</v>
+      </c>
+      <c r="E33" s="3">
         <v>160400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>146100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>398900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>277600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>68600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>77900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1611200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1602300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>211800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>224600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>145600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>184600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>174800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>604300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>288300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>226100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>321700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>121400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>225200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>661900</v>
+      </c>
+      <c r="E35" s="3">
         <v>160400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>146100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>398900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>277600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>68600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>77900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1611200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1602300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>211800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>224600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>145600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>184600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>174800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>604300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>288300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>226100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>321700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>121400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>225200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1671200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1332600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1366700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>956200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1038500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>944900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>841000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1013200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>360500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>528700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>738200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>406000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>340900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>251100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>330100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>193200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>233200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>295800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>279800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>560000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>236600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>290600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>388700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2888,79 +2978,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>738500</v>
+      </c>
+      <c r="E43" s="3">
         <v>546300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>526700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1829100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>709300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>385000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1120700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>324200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4129900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5653200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5001200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5497200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7312600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4094800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3611200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1315600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1231900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1105300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1916500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2812700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1986900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1812400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1644100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3030,38 +3126,41 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E45" s="3">
         <v>115100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>82000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>39800</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3">
         <v>21800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3077,8 +3176,8 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3101,8 +3200,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3172,112 +3274,118 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>33491800</v>
+      </c>
+      <c r="E47" s="3">
         <v>35832100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>37392900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33122200</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>32341700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30850600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>27451200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21402200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18650600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>37605900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34289000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29886800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>24951000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>26559100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25501900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>20917900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>20072900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>20296200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>18724200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>18987400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>17146900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>15721100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>15162000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E48" s="3">
         <v>173700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>175200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>53400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>56300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>54500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>53200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>55800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>32100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3290,8 +3398,8 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3314,38 +3422,41 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>227900</v>
+      </c>
+      <c r="E49" s="3">
         <v>228300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>103200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>61600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>62800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3">
         <v>64500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>65500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>66000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3361,8 +3472,8 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3385,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>295000</v>
+      </c>
+      <c r="E52" s="3">
         <v>195900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>194700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>238500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>136000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>135600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>230100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>287700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>323700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>170900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>206500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>198500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>185800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>229900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>155700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>161400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>179700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>150300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>184500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>223000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>306200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>314400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>325600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37868500</v>
+      </c>
+      <c r="E54" s="3">
         <v>39742200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>41604100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37250400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>35184100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>33252100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30406400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>23752100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>24193500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>44863500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>41347900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36792400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33409600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>31691000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30090800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22943700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22011900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22213600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21404800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>23000000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>20030000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>18399500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>17704400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,221 +3924,231 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>226900</v>
+      </c>
+      <c r="E57" s="3">
         <v>316700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>331700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>123500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>104100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>97000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>129900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>232300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>176700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1125700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2625600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>364000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>304500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2225400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1975200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1262500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1185100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1331900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1241300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1942300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1510000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1460600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1348600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>17281900</v>
+      </c>
+      <c r="E58" s="3">
         <v>20592900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>22760000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>21290900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19522500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>17547700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14666900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9171500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>10814100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>27916200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>23110400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>21480200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>18441800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15554000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>14387000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8757100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7635500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8662100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7848000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8261400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6277600</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5190600</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4929900</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>665900</v>
+      </c>
+      <c r="E59" s="3">
         <v>648200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1127500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>446000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>696400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>404200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>390900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>435100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>439600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>662900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>885600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>644300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>544600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>515900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>485300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>380000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>368400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>308400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>386000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>377600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>359300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>278400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4078,88 +4218,94 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>9823300</v>
+      </c>
+      <c r="E61" s="3">
         <v>9188100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>8790900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>7846400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>7649800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>8185700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>8275400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7412800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7014600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7720100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7405900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7297800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6952100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7102300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7254900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6707800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7031000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7084400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7237000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7787800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7557600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7990600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7833200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>642000</v>
+      </c>
+      <c r="E62" s="3">
         <v>440700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4175,8 +4321,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4194,20 +4340,20 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>3900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>10200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19200</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4220,8 +4366,11 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>30745900</v>
+      </c>
+      <c r="E66" s="3">
         <v>33138200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>35048000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>31178300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>29661300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>27931100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>25077200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18459900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18929600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37705700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34169500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>30074400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26587300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>25693300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24347400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>17234900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16348000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17523400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16833200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>18575200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15927900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15139400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>14576000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,19 +4838,22 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1262500</v>
+        <v>1258700</v>
       </c>
       <c r="E70" s="3">
         <v>1262500</v>
       </c>
       <c r="F70" s="3">
-        <v>813000</v>
+        <v>1262500</v>
       </c>
       <c r="G70" s="3">
         <v>813000</v>
@@ -4703,13 +4871,13 @@
         <v>813000</v>
       </c>
       <c r="L70" s="3">
-        <v>423400</v>
+        <v>813000</v>
       </c>
       <c r="M70" s="3">
         <v>423400</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>423400</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-267900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-813000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-856800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-886300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-914300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1108900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1094600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1110100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1059700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>549700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>545700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>528900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>768600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>830700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1014900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1000500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>995700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>559500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>424900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>352400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>184400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>210500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>100700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5864000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5341600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5293600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5259100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4709800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4508000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4516200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4479300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4450900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6734300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6755000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6718000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6822300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5997700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5743300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5708800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5663900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4690200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4571600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4424800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4102100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>3260100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>3128400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>661900</v>
+      </c>
+      <c r="E81" s="3">
         <v>160400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>146100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>398900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>277600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>68600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>77900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1611200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1602300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>211800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>224600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>145600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>184600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>174800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>604300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>288300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>226100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>321700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>121400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>225200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,26 +5613,27 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
@@ -5450,8 +5649,8 @@
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -5486,8 +5685,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3890200</v>
+      </c>
+      <c r="E89" s="3">
         <v>3570400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>320100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1006600</v>
       </c>
-      <c r="G89" s="3">
-        <v>-495400</v>
-      </c>
       <c r="H89" s="3">
+        <v>-495300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-29900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-880400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2766300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1311400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>693800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>466800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2482800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-300400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-272500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-316900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>513700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-281900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-274300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>35400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-378800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>181100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,31 +6159,32 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+        <v>-239300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-72400</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6010,8 +6231,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,79 +6379,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-736300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>5181200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2374100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-798500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2322300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5395500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16363200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16660800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5697600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1773900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-724100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2752900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-146600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4968800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-271900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>216200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-208000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1206200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1762000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1013900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-333500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-17800</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,34 +6483,35 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-116700</v>
+      </c>
+      <c r="E96" s="3">
         <v>-116600</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-93300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-165900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-82900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-62400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-41600</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-228500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-207800</v>
       </c>
       <c r="L96" s="3">
         <v>-207800</v>
@@ -6286,22 +6520,22 @@
         <v>-207800</v>
       </c>
       <c r="N96" s="3">
+        <v>-207800</v>
+      </c>
+      <c r="O96" s="3">
         <v>-207700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-184600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-170200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-169900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-168100</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-153700</v>
       </c>
       <c r="T96" s="3">
         <v>-153700</v>
@@ -6310,19 +6544,22 @@
         <v>-153700</v>
       </c>
       <c r="V96" s="3">
+        <v>-153700</v>
+      </c>
+      <c r="W96" s="3">
         <v>-147500</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-115400</v>
       </c>
       <c r="X96" s="3">
         <v>-115400</v>
       </c>
       <c r="Y96" s="3">
+        <v>-115400</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-106000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,79 +6777,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2716100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3102600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5134600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3495000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1387900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2411100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6145400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18668300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18155300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4793300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1643200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3263100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3147300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1229200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5372500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>530500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-763000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>504100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1217400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2049000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1334000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>192400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-8500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6676,75 +6925,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>437800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>366700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>114300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>94000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>58900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-130600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>461200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-183000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-210400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>336200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>56200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>94000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>131200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-58200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-33100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-285600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>322400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-58800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-88100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>139900</v>
       </c>
     </row>
